--- a/biology/Botanique/×Achimenantha_naegelioides/×Achimenantha_naegelioides.xlsx
+++ b/biology/Botanique/×Achimenantha_naegelioides/×Achimenantha_naegelioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%97Achimenantha_naegelioides</t>
+          <t>×Achimenantha_naegelioides</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">×Achimenantha est un genre monotypique de plantes à fleurs appartenant à la famille des Gesneriaceae[3]. Son unique espèce est : ×Achimenantha naegelioides.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">×Achimenantha est un genre monotypique de plantes à fleurs appartenant à la famille des Gesneriaceae. Son unique espèce est : ×Achimenantha naegelioides.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%97Achimenantha_naegelioides</t>
+          <t>×Achimenantha_naegelioides</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Achimenantha naegelioides a été décrite par (Van Houtte) H.e.moore et publiée dans Baileya  19: 36. 1973[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Achimenantha naegelioides a été décrite par (Van Houtte) H.e.moore et publiée dans Baileya  19: 36. 1973.
 Synonymie
-Plectopoma ×naegeloides Van Houtte[3],[4]</t>
+Plectopoma ×naegeloides Van Houtte,</t>
         </is>
       </c>
     </row>
